--- a/Data/3_LT_RECC_ProductLifetime_industry_V1.0.xlsx
+++ b/Data/3_LT_RECC_ProductLifetime_industry_V1.0.xlsx
@@ -760,7 +760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
@@ -772,7 +772,7 @@
     <col bestFit="1" customWidth="1" max="2" min="2" style="15" width="70.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -811,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -881,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -895,7 +895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -909,7 +909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -951,7 +951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -965,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -979,37 +979,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="14" t="n"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="14" t="n"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="14" t="n"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="14" t="n"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="14" t="n"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:8">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:8">
       <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:8">
       <c r="A25" s="18" t="s">
         <v>56</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:8">
       <c r="C26" s="16" t="s">
         <v>61</v>
       </c>
@@ -1118,22 +1118,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:8">
       <c r="E27" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8">
       <c r="E28" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:8">
       <c r="E29" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:8">
       <c r="E30" s="14" t="s">
         <v>1</v>
       </c>

--- a/Data/3_LT_RECC_ProductLifetime_industry_V1.0.xlsx
+++ b/Data/3_LT_RECC_ProductLifetime_industry_V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>DATA_Info</t>
   </si>
   <si>
-    <t>Products_m3</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>wind power plant onshore</t>
   </si>
   <si>
-    <t>good g</t>
-  </si>
-  <si>
     <t>Stats_array_string</t>
   </si>
   <si>
@@ -260,6 +254,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Sector_industry</t>
+  </si>
+  <si>
+    <t>Industry I</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,68 +966,67 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
       <c r="B25" s="17"/>
       <c r="C25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1054,7 +1053,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1066,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,244 +1077,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
